--- a/SectorCompany.xlsx
+++ b/SectorCompany.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Trading_Champion\Projects\Sector-rotation-v2\Sector-rotation-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Trading_Champion\Projects\Sector-rotation-v2\Sector-rotation-v3-claude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833BEB8-37A5-4C5B-BC0E-321D70A46A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19FD29-9C54-49FB-B815-DB9B1CE10F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="282">
   <si>
     <t>Sector</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>COALINDIA.NS</t>
-  </si>
-  <si>
-    <t>Fineotex Chemical</t>
-  </si>
-  <si>
-    <t>FINEOTEX.NS</t>
   </si>
   <si>
     <t>Ratnamani Metals</t>
@@ -1234,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1538,7 +1532,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,26 +1560,23 @@
         <v>52</v>
       </c>
       <c r="D25">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26">
-        <v>6.4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -1596,7 +1587,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -1607,7 +1598,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -1618,7 +1609,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -1629,7 +1620,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -1640,7 +1631,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -1651,7 +1642,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -1662,7 +1653,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -1673,18 +1664,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>28.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -1693,12 +1687,12 @@
         <v>76</v>
       </c>
       <c r="D36">
-        <v>28.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -1707,12 +1701,12 @@
         <v>78</v>
       </c>
       <c r="D37">
-        <v>25.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
@@ -1721,26 +1715,26 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>18.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39">
-        <v>5.2</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
@@ -1749,12 +1743,12 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>35.200000000000003</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
@@ -1763,12 +1757,12 @@
         <v>87</v>
       </c>
       <c r="D41">
-        <v>18.899999999999999</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -1776,13 +1770,10 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="D42">
-        <v>12.3</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -1793,18 +1784,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D44">
+        <v>15.4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>95</v>
@@ -1813,12 +1807,12 @@
         <v>96</v>
       </c>
       <c r="D45">
-        <v>15.4</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
@@ -1827,12 +1821,12 @@
         <v>98</v>
       </c>
       <c r="D46">
-        <v>8.1999999999999993</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
@@ -1841,12 +1835,12 @@
         <v>100</v>
       </c>
       <c r="D47">
-        <v>6.85</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
@@ -1855,12 +1849,12 @@
         <v>102</v>
       </c>
       <c r="D48">
-        <v>6.32</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
@@ -1869,12 +1863,12 @@
         <v>104</v>
       </c>
       <c r="D49">
-        <v>5.68</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
@@ -1883,12 +1877,12 @@
         <v>106</v>
       </c>
       <c r="D50">
-        <v>5.37</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
@@ -1897,12 +1891,12 @@
         <v>108</v>
       </c>
       <c r="D51">
-        <v>4.74</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1911,12 +1905,12 @@
         <v>110</v>
       </c>
       <c r="D52">
-        <v>4.2300000000000004</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
@@ -1925,12 +1919,12 @@
         <v>112</v>
       </c>
       <c r="D53">
-        <v>3.66</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>113</v>
@@ -1939,12 +1933,12 @@
         <v>114</v>
       </c>
       <c r="D54">
-        <v>3.34</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -1953,12 +1947,12 @@
         <v>116</v>
       </c>
       <c r="D55">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
@@ -1967,12 +1961,12 @@
         <v>118</v>
       </c>
       <c r="D56">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
         <v>119</v>
@@ -1980,13 +1974,10 @@
       <c r="C57" t="s">
         <v>120</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
@@ -1997,7 +1988,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
@@ -2008,18 +1999,21 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="D60">
+        <v>22.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>128</v>
@@ -2028,12 +2022,12 @@
         <v>129</v>
       </c>
       <c r="D61">
-        <v>22.3</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>130</v>
@@ -2042,12 +2036,12 @@
         <v>131</v>
       </c>
       <c r="D62">
-        <v>18.899999999999999</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -2056,12 +2050,12 @@
         <v>133</v>
       </c>
       <c r="D63">
-        <v>17.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
@@ -2070,12 +2064,12 @@
         <v>135</v>
       </c>
       <c r="D64">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
         <v>136</v>
@@ -2084,12 +2078,12 @@
         <v>137</v>
       </c>
       <c r="D65">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -2098,12 +2092,12 @@
         <v>139</v>
       </c>
       <c r="D66">
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>140</v>
@@ -2111,13 +2105,10 @@
       <c r="C67" t="s">
         <v>141</v>
       </c>
-      <c r="D67">
-        <v>4.5999999999999996</v>
-      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
         <v>142</v>
@@ -2128,7 +2119,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
         <v>144</v>
@@ -2139,7 +2130,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
         <v>146</v>
@@ -2150,18 +2141,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D71">
+        <v>24.3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
@@ -2170,12 +2164,12 @@
         <v>152</v>
       </c>
       <c r="D72">
-        <v>24.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
         <v>153</v>
@@ -2184,12 +2178,12 @@
         <v>154</v>
       </c>
       <c r="D73">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>155</v>
@@ -2198,12 +2192,12 @@
         <v>156</v>
       </c>
       <c r="D74">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>157</v>
@@ -2211,13 +2205,10 @@
       <c r="C75" t="s">
         <v>158</v>
       </c>
-      <c r="D75">
-        <v>6.4</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
         <v>159</v>
@@ -2228,7 +2219,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
         <v>161</v>
@@ -2239,7 +2230,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>163</v>
@@ -2250,7 +2241,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
         <v>165</v>
@@ -2261,7 +2252,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
         <v>167</v>
@@ -2272,7 +2263,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>169</v>
@@ -2283,7 +2274,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>171</v>
@@ -2294,18 +2285,21 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D83">
+        <v>20.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s">
         <v>176</v>
@@ -2314,12 +2308,12 @@
         <v>177</v>
       </c>
       <c r="D84">
-        <v>20.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
         <v>178</v>
@@ -2328,12 +2322,12 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>18.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
         <v>180</v>
@@ -2342,12 +2336,12 @@
         <v>181</v>
       </c>
       <c r="D86">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
         <v>182</v>
@@ -2356,12 +2350,12 @@
         <v>183</v>
       </c>
       <c r="D87">
-        <v>9.8000000000000007</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
         <v>184</v>
@@ -2370,12 +2364,12 @@
         <v>185</v>
       </c>
       <c r="D88">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
@@ -2384,12 +2378,12 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
         <v>188</v>
@@ -2398,12 +2392,12 @@
         <v>189</v>
       </c>
       <c r="D90">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
         <v>190</v>
@@ -2412,26 +2406,26 @@
         <v>191</v>
       </c>
       <c r="D91">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D92">
-        <v>4.0999999999999996</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
         <v>195</v>
@@ -2440,12 +2434,12 @@
         <v>196</v>
       </c>
       <c r="D93">
-        <v>18.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
         <v>197</v>
@@ -2454,12 +2448,12 @@
         <v>198</v>
       </c>
       <c r="D94">
-        <v>12.8</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
         <v>199</v>
@@ -2468,12 +2462,12 @@
         <v>200</v>
       </c>
       <c r="D95">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
         <v>201</v>
@@ -2481,24 +2475,24 @@
       <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="D96">
-        <v>8.9</v>
-      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="D97">
+        <v>27.7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
         <v>206</v>
@@ -2507,12 +2501,12 @@
         <v>207</v>
       </c>
       <c r="D98">
-        <v>27.7</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B99" t="s">
         <v>208</v>
@@ -2521,26 +2515,26 @@
         <v>209</v>
       </c>
       <c r="D99">
-        <v>17.899999999999999</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D100">
-        <v>5.7</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s">
         <v>213</v>
@@ -2549,12 +2543,12 @@
         <v>214</v>
       </c>
       <c r="D101">
-        <v>22.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
         <v>215</v>
@@ -2563,12 +2557,12 @@
         <v>216</v>
       </c>
       <c r="D102">
-        <v>18.5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
         <v>217</v>
@@ -2577,40 +2571,40 @@
         <v>218</v>
       </c>
       <c r="D103">
-        <v>10.199999999999999</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="D104">
-        <v>3.8</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D105">
-        <v>45.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
         <v>222</v>
@@ -2619,12 +2613,12 @@
         <v>223</v>
       </c>
       <c r="D106">
-        <v>18.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>224</v>
@@ -2633,12 +2627,12 @@
         <v>225</v>
       </c>
       <c r="D107">
-        <v>14.2</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
         <v>226</v>
@@ -2647,12 +2641,12 @@
         <v>227</v>
       </c>
       <c r="D108">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
         <v>228</v>
@@ -2661,12 +2655,12 @@
         <v>229</v>
       </c>
       <c r="D109">
-        <v>11.5</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
         <v>230</v>
@@ -2675,12 +2669,12 @@
         <v>231</v>
       </c>
       <c r="D110">
-        <v>9.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
         <v>232</v>
@@ -2689,12 +2683,12 @@
         <v>233</v>
       </c>
       <c r="D111">
-        <v>8.3000000000000007</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
         <v>234</v>
@@ -2703,26 +2697,26 @@
         <v>235</v>
       </c>
       <c r="D112">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D113">
-        <v>5.8</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s">
         <v>239</v>
@@ -2731,12 +2725,12 @@
         <v>240</v>
       </c>
       <c r="D114">
-        <v>38.200000000000003</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s">
         <v>241</v>
@@ -2745,12 +2739,12 @@
         <v>242</v>
       </c>
       <c r="D115">
-        <v>18.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>243</v>
@@ -2759,12 +2753,12 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
         <v>245</v>
@@ -2773,12 +2767,12 @@
         <v>246</v>
       </c>
       <c r="D117">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
         <v>247</v>
@@ -2787,12 +2781,12 @@
         <v>248</v>
       </c>
       <c r="D118">
-        <v>9.8000000000000007</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
         <v>249</v>
@@ -2800,24 +2794,24 @@
       <c r="C119" t="s">
         <v>250</v>
       </c>
-      <c r="D119">
-        <v>4.2</v>
-      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="D120">
+        <v>28.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B121" t="s">
         <v>254</v>
@@ -2826,12 +2820,12 @@
         <v>255</v>
       </c>
       <c r="D121">
-        <v>28.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
         <v>256</v>
@@ -2840,12 +2834,12 @@
         <v>257</v>
       </c>
       <c r="D122">
-        <v>24.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B123" t="s">
         <v>258</v>
@@ -2854,12 +2848,12 @@
         <v>259</v>
       </c>
       <c r="D123">
-        <v>18.7</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B124" t="s">
         <v>260</v>
@@ -2868,12 +2862,12 @@
         <v>261</v>
       </c>
       <c r="D124">
-        <v>15.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
         <v>262</v>
@@ -2882,26 +2876,26 @@
         <v>263</v>
       </c>
       <c r="D125">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D126">
-        <v>4.2</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B127" t="s">
         <v>267</v>
@@ -2910,12 +2904,12 @@
         <v>268</v>
       </c>
       <c r="D127">
-        <v>22.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s">
         <v>269</v>
@@ -2924,12 +2918,12 @@
         <v>270</v>
       </c>
       <c r="D128">
-        <v>18.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B129" t="s">
         <v>271</v>
@@ -2938,12 +2932,12 @@
         <v>272</v>
       </c>
       <c r="D129">
-        <v>14</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
         <v>273</v>
@@ -2952,12 +2946,12 @@
         <v>274</v>
       </c>
       <c r="D130">
-        <v>11.8</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B131" t="s">
         <v>275</v>
@@ -2966,12 +2960,12 @@
         <v>276</v>
       </c>
       <c r="D131">
-        <v>10.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
         <v>277</v>
@@ -2980,12 +2974,12 @@
         <v>278</v>
       </c>
       <c r="D132">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
         <v>279</v>
@@ -2994,20 +2988,6 @@
         <v>280</v>
       </c>
       <c r="D133">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134">
         <v>6.7</v>
       </c>
     </row>

--- a/SectorCompany.xlsx
+++ b/SectorCompany.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Trading_Champion\Projects\Sector-rotation-v2\Sector-rotation-v3-claude\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Trading_Champion\Projects\Sector-rotation-v2\Sector-rotation-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19FD29-9C54-49FB-B815-DB9B1CE10F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833BEB8-37A5-4C5B-BC0E-321D70A46A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="284">
   <si>
     <t>Sector</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>COALINDIA.NS</t>
+  </si>
+  <si>
+    <t>Fineotex Chemical</t>
+  </si>
+  <si>
+    <t>FINEOTEX.NS</t>
   </si>
   <si>
     <t>Ratnamani Metals</t>
@@ -1228,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1532,7 +1538,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>8.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,23 +1566,26 @@
         <v>52</v>
       </c>
       <c r="D25">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>55</v>
+      <c r="D26">
+        <v>6.4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -1587,7 +1596,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -1598,7 +1607,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -1609,7 +1618,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -1620,7 +1629,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -1631,7 +1640,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -1642,7 +1651,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -1653,7 +1662,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -1664,21 +1673,18 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>28.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -1687,12 +1693,12 @@
         <v>76</v>
       </c>
       <c r="D36">
-        <v>25.3</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -1701,12 +1707,12 @@
         <v>78</v>
       </c>
       <c r="D37">
-        <v>18.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
@@ -1715,26 +1721,26 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>5.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
       <c r="D39">
-        <v>35.200000000000003</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
@@ -1743,12 +1749,12 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>18.899999999999999</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
@@ -1757,12 +1763,12 @@
         <v>87</v>
       </c>
       <c r="D41">
-        <v>12.3</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -1770,10 +1776,13 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
+      <c r="D42">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -1784,21 +1793,18 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44">
-        <v>15.4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>95</v>
@@ -1807,12 +1813,12 @@
         <v>96</v>
       </c>
       <c r="D45">
-        <v>8.1999999999999993</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
@@ -1821,12 +1827,12 @@
         <v>98</v>
       </c>
       <c r="D46">
-        <v>6.85</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
@@ -1835,12 +1841,12 @@
         <v>100</v>
       </c>
       <c r="D47">
-        <v>6.32</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
@@ -1849,12 +1855,12 @@
         <v>102</v>
       </c>
       <c r="D48">
-        <v>5.68</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
@@ -1863,12 +1869,12 @@
         <v>104</v>
       </c>
       <c r="D49">
-        <v>5.37</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
@@ -1877,12 +1883,12 @@
         <v>106</v>
       </c>
       <c r="D50">
-        <v>4.74</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
@@ -1891,12 +1897,12 @@
         <v>108</v>
       </c>
       <c r="D51">
-        <v>4.2300000000000004</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1905,12 +1911,12 @@
         <v>110</v>
       </c>
       <c r="D52">
-        <v>3.66</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
@@ -1919,12 +1925,12 @@
         <v>112</v>
       </c>
       <c r="D53">
-        <v>3.34</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>113</v>
@@ -1933,12 +1939,12 @@
         <v>114</v>
       </c>
       <c r="D54">
-        <v>1.9</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -1947,12 +1953,12 @@
         <v>116</v>
       </c>
       <c r="D55">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
@@ -1961,12 +1967,12 @@
         <v>118</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>119</v>
@@ -1974,10 +1980,13 @@
       <c r="C57" t="s">
         <v>120</v>
       </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
@@ -1999,21 +2008,18 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60">
-        <v>22.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
         <v>128</v>
@@ -2022,12 +2028,12 @@
         <v>129</v>
       </c>
       <c r="D61">
-        <v>18.899999999999999</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>130</v>
@@ -2036,12 +2042,12 @@
         <v>131</v>
       </c>
       <c r="D62">
-        <v>17.5</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -2050,12 +2056,12 @@
         <v>133</v>
       </c>
       <c r="D63">
-        <v>12.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
@@ -2064,12 +2070,12 @@
         <v>135</v>
       </c>
       <c r="D64">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
         <v>136</v>
@@ -2078,12 +2084,12 @@
         <v>137</v>
       </c>
       <c r="D65">
-        <v>5.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -2092,12 +2098,12 @@
         <v>139</v>
       </c>
       <c r="D66">
-        <v>4.5999999999999996</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
         <v>140</v>
@@ -2105,10 +2111,13 @@
       <c r="C67" t="s">
         <v>141</v>
       </c>
+      <c r="D67">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
         <v>142</v>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
         <v>144</v>
@@ -2130,7 +2139,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
         <v>146</v>
@@ -2141,21 +2150,18 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
         <v>148</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>149</v>
-      </c>
-      <c r="C71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71">
-        <v>24.3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
@@ -2164,12 +2170,12 @@
         <v>152</v>
       </c>
       <c r="D72">
-        <v>15.8</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
         <v>153</v>
@@ -2178,12 +2184,12 @@
         <v>154</v>
       </c>
       <c r="D73">
-        <v>12.5</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
         <v>155</v>
@@ -2192,12 +2198,12 @@
         <v>156</v>
       </c>
       <c r="D74">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>157</v>
@@ -2205,10 +2211,13 @@
       <c r="C75" t="s">
         <v>158</v>
       </c>
+      <c r="D75">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
         <v>159</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
         <v>161</v>
@@ -2230,7 +2239,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
         <v>163</v>
@@ -2241,7 +2250,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
         <v>165</v>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
         <v>167</v>
@@ -2263,7 +2272,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
         <v>169</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
         <v>171</v>
@@ -2285,21 +2294,18 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
         <v>173</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>174</v>
-      </c>
-      <c r="C83" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83">
-        <v>20.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
         <v>176</v>
@@ -2308,12 +2314,12 @@
         <v>177</v>
       </c>
       <c r="D84">
-        <v>18.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
         <v>178</v>
@@ -2322,12 +2328,12 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>12.1</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
         <v>180</v>
@@ -2336,12 +2342,12 @@
         <v>181</v>
       </c>
       <c r="D86">
-        <v>9.8000000000000007</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
         <v>182</v>
@@ -2350,12 +2356,12 @@
         <v>183</v>
       </c>
       <c r="D87">
-        <v>7.3</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
         <v>184</v>
@@ -2364,12 +2370,12 @@
         <v>185</v>
       </c>
       <c r="D88">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
@@ -2378,12 +2384,12 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
         <v>188</v>
@@ -2392,12 +2398,12 @@
         <v>189</v>
       </c>
       <c r="D90">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
         <v>190</v>
@@ -2406,26 +2412,26 @@
         <v>191</v>
       </c>
       <c r="D91">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
         <v>192</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>193</v>
       </c>
-      <c r="C92" t="s">
-        <v>194</v>
-      </c>
       <c r="D92">
-        <v>18.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
         <v>195</v>
@@ -2434,12 +2440,12 @@
         <v>196</v>
       </c>
       <c r="D93">
-        <v>12.8</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
         <v>197</v>
@@ -2448,12 +2454,12 @@
         <v>198</v>
       </c>
       <c r="D94">
-        <v>10.199999999999999</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
         <v>199</v>
@@ -2462,12 +2468,12 @@
         <v>200</v>
       </c>
       <c r="D95">
-        <v>8.9</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
         <v>201</v>
@@ -2475,24 +2481,24 @@
       <c r="C96" t="s">
         <v>202</v>
       </c>
+      <c r="D96">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
         <v>203</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97">
-        <v>27.7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
         <v>206</v>
@@ -2501,12 +2507,12 @@
         <v>207</v>
       </c>
       <c r="D98">
-        <v>17.899999999999999</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>208</v>
@@ -2515,26 +2521,26 @@
         <v>209</v>
       </c>
       <c r="D99">
-        <v>5.7</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
         <v>210</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>211</v>
       </c>
-      <c r="C100" t="s">
-        <v>212</v>
-      </c>
       <c r="D100">
-        <v>22.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s">
         <v>213</v>
@@ -2543,12 +2549,12 @@
         <v>214</v>
       </c>
       <c r="D101">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s">
         <v>215</v>
@@ -2557,12 +2563,12 @@
         <v>216</v>
       </c>
       <c r="D102">
-        <v>10.199999999999999</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s">
         <v>217</v>
@@ -2571,40 +2577,40 @@
         <v>218</v>
       </c>
       <c r="D103">
-        <v>3.8</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="D104">
-        <v>45.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D105">
-        <v>18.5</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
         <v>222</v>
@@ -2613,12 +2619,12 @@
         <v>223</v>
       </c>
       <c r="D106">
-        <v>14.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
         <v>224</v>
@@ -2627,12 +2633,12 @@
         <v>225</v>
       </c>
       <c r="D107">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
         <v>226</v>
@@ -2641,12 +2647,12 @@
         <v>227</v>
       </c>
       <c r="D108">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
         <v>228</v>
@@ -2655,12 +2661,12 @@
         <v>229</v>
       </c>
       <c r="D109">
-        <v>9.6999999999999993</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
         <v>230</v>
@@ -2669,12 +2675,12 @@
         <v>231</v>
       </c>
       <c r="D110">
-        <v>8.3000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
         <v>232</v>
@@ -2683,12 +2689,12 @@
         <v>233</v>
       </c>
       <c r="D111">
-        <v>6.9</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
         <v>234</v>
@@ -2697,26 +2703,26 @@
         <v>235</v>
       </c>
       <c r="D112">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
         <v>236</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>237</v>
       </c>
-      <c r="C113" t="s">
-        <v>238</v>
-      </c>
       <c r="D113">
-        <v>38.200000000000003</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
         <v>239</v>
@@ -2725,12 +2731,12 @@
         <v>240</v>
       </c>
       <c r="D114">
-        <v>18.5</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
         <v>241</v>
@@ -2739,12 +2745,12 @@
         <v>242</v>
       </c>
       <c r="D115">
-        <v>15.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
         <v>243</v>
@@ -2753,12 +2759,12 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>12.1</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
         <v>245</v>
@@ -2767,12 +2773,12 @@
         <v>246</v>
       </c>
       <c r="D117">
-        <v>9.8000000000000007</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
         <v>247</v>
@@ -2781,12 +2787,12 @@
         <v>248</v>
       </c>
       <c r="D118">
-        <v>4.2</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
         <v>249</v>
@@ -2794,24 +2800,24 @@
       <c r="C119" t="s">
         <v>250</v>
       </c>
+      <c r="D119">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
         <v>251</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>252</v>
-      </c>
-      <c r="C120" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120">
-        <v>28.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B121" t="s">
         <v>254</v>
@@ -2820,12 +2826,12 @@
         <v>255</v>
       </c>
       <c r="D121">
-        <v>24.3</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B122" t="s">
         <v>256</v>
@@ -2834,12 +2840,12 @@
         <v>257</v>
       </c>
       <c r="D122">
-        <v>18.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
         <v>258</v>
@@ -2848,12 +2854,12 @@
         <v>259</v>
       </c>
       <c r="D123">
-        <v>15.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B124" t="s">
         <v>260</v>
@@ -2862,12 +2868,12 @@
         <v>261</v>
       </c>
       <c r="D124">
-        <v>7.8</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B125" t="s">
         <v>262</v>
@@ -2876,26 +2882,26 @@
         <v>263</v>
       </c>
       <c r="D125">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
         <v>264</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>265</v>
       </c>
-      <c r="C126" t="s">
-        <v>266</v>
-      </c>
       <c r="D126">
-        <v>22.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B127" t="s">
         <v>267</v>
@@ -2904,12 +2910,12 @@
         <v>268</v>
       </c>
       <c r="D127">
-        <v>18.3</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B128" t="s">
         <v>269</v>
@@ -2918,12 +2924,12 @@
         <v>270</v>
       </c>
       <c r="D128">
-        <v>14</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s">
         <v>271</v>
@@ -2932,12 +2938,12 @@
         <v>272</v>
       </c>
       <c r="D129">
-        <v>11.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B130" t="s">
         <v>273</v>
@@ -2946,12 +2952,12 @@
         <v>274</v>
       </c>
       <c r="D130">
-        <v>10.199999999999999</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
         <v>275</v>
@@ -2960,12 +2966,12 @@
         <v>276</v>
       </c>
       <c r="D131">
-        <v>8.6</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B132" t="s">
         <v>277</v>
@@ -2974,12 +2980,12 @@
         <v>278</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
         <v>279</v>
@@ -2988,6 +2994,20 @@
         <v>280</v>
       </c>
       <c r="D133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134">
         <v>6.7</v>
       </c>
     </row>
